--- a/2-Empirical-Evidence/raw_data/California.xlsx
+++ b/2-Empirical-Evidence/raw_data/California.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN060010000000003</t>
@@ -1234,10 +1250,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>4.0</v>
@@ -1332,10 +1360,20 @@
       <c r="AF5" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>27359.0</v>
@@ -1430,10 +1468,20 @@
       <c r="AF6" t="n" s="8">
         <v>72979.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>49385.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>27475.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>33663.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>649849.0</v>
@@ -1528,10 +1576,20 @@
       <c r="AF7" t="n" s="8">
         <v>745114.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>761786.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>792342.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>792439.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>677208.0</v>
@@ -1626,10 +1684,20 @@
       <c r="AF8" t="n" s="8">
         <v>818093.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>811171.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>819817.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>826102.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>9.6</v>
@@ -1724,10 +1792,20 @@
       <c r="AF9" t="n" s="10">
         <v>11.7</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>36.0</v>
@@ -1822,10 +1900,20 @@
       <c r="AF10" t="n" s="8">
         <v>60.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>339.0</v>
@@ -1920,10 +2008,20 @@
       <c r="AF11" t="n" s="8">
         <v>454.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>470.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>505.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>375.0</v>
@@ -2018,10 +2116,20 @@
       <c r="AF12" t="n" s="8">
         <v>514.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>512.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>495.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>540.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.2</v>
@@ -2116,10 +2224,20 @@
       <c r="AF13" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>592.0</v>
@@ -2214,10 +2332,20 @@
       <c r="AF14" t="n" s="8">
         <v>1356.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>1005.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>641.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>731.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>10859.0</v>
@@ -2312,10 +2440,20 @@
       <c r="AF15" t="n" s="8">
         <v>13118.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>13362.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>13640.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>13673.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>11451.0</v>
@@ -2410,10 +2548,20 @@
       <c r="AF16" t="n" s="8">
         <v>14474.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>14367.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>14281.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>14404.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>8.4</v>
@@ -2508,10 +2656,20 @@
       <c r="AF17" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>6610.0</v>
@@ -2606,10 +2764,20 @@
       <c r="AF18" t="n" s="8">
         <v>8724.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>6346.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>4139.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>4822.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>72160.0</v>
@@ -2704,10 +2872,20 @@
       <c r="AF19" t="n" s="8">
         <v>84510.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>85667.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>87374.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>87088.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>78770.0</v>
@@ -2802,10 +2980,20 @@
       <c r="AF20" t="n" s="8">
         <v>93234.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>92013.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>91513.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>91910.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>6.8</v>
@@ -2900,10 +3088,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>914.0</v>
@@ -2998,10 +3196,20 @@
       <c r="AF22" t="n" s="8">
         <v>1665.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1247.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>818.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>926.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>12529.0</v>
@@ -3096,10 +3304,20 @@
       <c r="AF23" t="n" s="8">
         <v>19688.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>20311.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>21275.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>21030.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>13443.0</v>
@@ -3194,10 +3412,20 @@
       <c r="AF24" t="n" s="8">
         <v>21353.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>21558.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>22093.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>21956.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>14.2</v>
@@ -3292,10 +3520,20 @@
       <c r="AF25" t="n" s="10">
         <v>16.4</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>1140.0</v>
@@ -3390,10 +3628,20 @@
       <c r="AF26" t="n" s="8">
         <v>1745.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>1335.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>1199.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>1374.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>6862.0</v>
@@ -3488,10 +3736,20 @@
       <c r="AF27" t="n" s="8">
         <v>8877.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>9310.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>9000.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>9202.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>8002.0</v>
@@ -3586,10 +3844,20 @@
       <c r="AF28" t="n" s="8">
         <v>10622.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>10645.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>10199.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>10576.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>4.0</v>
@@ -3684,10 +3952,20 @@
       <c r="AF29" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>17426.0</v>
@@ -3782,10 +4060,20 @@
       <c r="AF30" t="n" s="8">
         <v>49137.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>34626.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>19608.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>22767.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>417764.0</v>
@@ -3880,10 +4168,20 @@
       <c r="AF31" t="n" s="8">
         <v>497173.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>508168.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>528017.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>527843.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>435190.0</v>
@@ -3978,10 +4276,20 @@
       <c r="AF32" t="n" s="8">
         <v>546310.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>542794.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>547625.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>550610.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>12.0</v>
@@ -4076,10 +4384,20 @@
       <c r="AF33" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1154.0</v>
@@ -4174,10 +4492,20 @@
       <c r="AF34" t="n" s="8">
         <v>910.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>709.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>485.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>539.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>8451.0</v>
@@ -4272,10 +4600,20 @@
       <c r="AF35" t="n" s="8">
         <v>8519.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>8621.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>8801.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>8904.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>9605.0</v>
@@ -4370,10 +4708,20 @@
       <c r="AF36" t="n" s="8">
         <v>9429.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>9330.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>9286.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>9443.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>4.5</v>
@@ -4468,10 +4816,20 @@
       <c r="AF37" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>2840.0</v>
@@ -4566,10 +4924,20 @@
       <c r="AF38" t="n" s="8">
         <v>7686.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>5314.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>3177.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>3707.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>60979.0</v>
@@ -4664,10 +5032,20 @@
       <c r="AF39" t="n" s="8">
         <v>83202.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>86361.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>89173.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>89963.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>63819.0</v>
@@ -4762,10 +5140,20 @@
       <c r="AF40" t="n" s="8">
         <v>90888.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>91675.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>92350.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>93670.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>11.6</v>
@@ -4860,10 +5248,20 @@
       <c r="AF41" t="n" s="10">
         <v>11.6</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>38129.0</v>
@@ -4958,10 +5356,20 @@
       <c r="AF42" t="n" s="8">
         <v>51880.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>40549.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>29203.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>34405.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>290417.0</v>
@@ -5056,10 +5464,20 @@
       <c r="AF43" t="n" s="8">
         <v>393753.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>402977.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>420893.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>426635.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>328546.0</v>
@@ -5154,10 +5572,20 @@
       <c r="AF44" t="n" s="8">
         <v>445633.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>443526.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>450096.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>461040.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>12.4</v>
@@ -5252,10 +5680,20 @@
       <c r="AF45" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1400.0</v>
@@ -5350,10 +5788,20 @@
       <c r="AF46" t="n" s="8">
         <v>1148.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>886.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>694.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>803.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>9845.0</v>
@@ -5448,10 +5896,20 @@
       <c r="AF47" t="n" s="8">
         <v>11612.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>11715.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>12062.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>11989.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>11245.0</v>
@@ -5546,10 +6004,20 @@
       <c r="AF48" t="n" s="8">
         <v>12760.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>12601.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>12756.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>12792.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>7.9</v>
@@ -5644,10 +6112,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>4440.0</v>
@@ -5742,10 +6220,20 @@
       <c r="AF50" t="n" s="8">
         <v>5098.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>3705.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>2395.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>2758.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>51802.0</v>
@@ -5840,10 +6328,20 @@
       <c r="AF51" t="n" s="8">
         <v>54656.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>55072.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>56694.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>57189.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>56242.0</v>
@@ -5938,10 +6436,20 @@
       <c r="AF52" t="n" s="8">
         <v>59754.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>58777.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>59089.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>59947.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>25.4</v>
@@ -6036,10 +6544,20 @@
       <c r="AF53" t="n" s="10">
         <v>22.6</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>17.3</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>12028.0</v>
@@ -6134,10 +6652,20 @@
       <c r="AF54" t="n" s="8">
         <v>16174.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>12027.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>10419.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>12657.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>35247.0</v>
@@ -6232,10 +6760,20 @@
       <c r="AF55" t="n" s="8">
         <v>55364.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>56838.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>59517.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>60637.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>47275.0</v>
@@ -6330,10 +6868,20 @@
       <c r="AF56" t="n" s="8">
         <v>71538.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>68865.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>69936.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>73294.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>7.1</v>
@@ -6428,10 +6976,20 @@
       <c r="AF57" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>499.0</v>
@@ -6526,10 +7084,20 @@
       <c r="AF58" t="n" s="8">
         <v>663.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>490.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>309.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>316.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>6510.0</v>
@@ -6624,10 +7192,20 @@
       <c r="AF59" t="n" s="8">
         <v>7656.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>7750.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>7849.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>8039.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>7009.0</v>
@@ -6722,10 +7300,20 @@
       <c r="AF60" t="n" s="8">
         <v>8319.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>8240.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>8158.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>8355.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>10.9</v>
@@ -6820,10 +7408,20 @@
       <c r="AF61" t="n" s="10">
         <v>12.8</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>27888.0</v>
@@ -6918,10 +7516,20 @@
       <c r="AF62" t="n" s="8">
         <v>49525.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>38197.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>27445.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>32765.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>228803.0</v>
@@ -7016,10 +7624,20 @@
       <c r="AF63" t="n" s="8">
         <v>336819.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>346802.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>361729.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>360971.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>256691.0</v>
@@ -7114,10 +7732,20 @@
       <c r="AF64" t="n" s="8">
         <v>386344.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>384999.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>389174.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>393736.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>11.2</v>
@@ -7212,10 +7840,20 @@
       <c r="AF65" t="n" s="10">
         <v>11.8</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>9.7</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>4207.0</v>
@@ -7310,10 +7948,20 @@
       <c r="AF66" t="n" s="8">
         <v>6752.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>5364.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>3989.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>4781.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>33351.0</v>
@@ -7408,10 +8056,20 @@
       <c r="AF67" t="n" s="8">
         <v>50252.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>49971.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>52180.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>53451.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>37558.0</v>
@@ -7506,10 +8164,20 @@
       <c r="AF68" t="n" s="8">
         <v>57004.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>55335.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>56169.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>58232.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>8.8</v>
@@ -7604,10 +8272,20 @@
       <c r="AF69" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>1766.0</v>
@@ -7702,10 +8380,20 @@
       <c r="AF70" t="n" s="8">
         <v>2776.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>2166.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>1433.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1661.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>18199.0</v>
@@ -7800,10 +8488,20 @@
       <c r="AF71" t="n" s="8">
         <v>25682.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>26217.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>26937.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>27045.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>19965.0</v>
@@ -7898,10 +8596,20 @@
       <c r="AF72" t="n" s="8">
         <v>28458.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>28383.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>28370.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>28706.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>9.8</v>
@@ -7996,10 +8704,20 @@
       <c r="AF73" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>977.0</v>
@@ -8094,10 +8812,20 @@
       <c r="AF74" t="n" s="8">
         <v>694.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>556.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>404.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>448.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>8999.0</v>
@@ -8192,10 +8920,20 @@
       <c r="AF75" t="n" s="8">
         <v>8718.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>8579.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>8297.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>8176.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>9976.0</v>
@@ -8290,10 +9028,20 @@
       <c r="AF76" t="n" s="8">
         <v>9412.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>9135.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>8701.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>8624.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>5.9</v>
@@ -8388,10 +9136,20 @@
       <c r="AF77" t="n" s="10">
         <v>12.3</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>267340.0</v>
@@ -8486,10 +9244,20 @@
       <c r="AF78" t="n" s="8">
         <v>611336.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>448692.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>248835.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>252042.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>4237818.0</v>
@@ -8584,10 +9352,20 @@
       <c r="AF79" t="n" s="8">
         <v>4363337.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>4558859.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>4764528.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>4763587.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>4505158.0</v>
@@ -8682,10 +9460,20 @@
       <c r="AF80" t="n" s="8">
         <v>4974673.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>5007551.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>5013363.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>5015629.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>13.4</v>
@@ -8780,10 +9568,20 @@
       <c r="AF81" t="n" s="10">
         <v>11.1</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>8.8</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>5581.0</v>
@@ -8878,10 +9676,20 @@
       <c r="AF82" t="n" s="8">
         <v>6880.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>5462.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>3927.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>4802.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>35945.0</v>
@@ -8976,10 +9784,20 @@
       <c r="AF83" t="n" s="8">
         <v>55065.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>56630.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>59007.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>59404.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>41526.0</v>
@@ -9074,10 +9892,20 @@
       <c r="AF84" t="n" s="8">
         <v>61945.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>62092.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>62934.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>64206.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>2.5</v>
@@ -9172,10 +10000,20 @@
       <c r="AF85" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>3313.0</v>
@@ -9270,10 +10108,20 @@
       <c r="AF86" t="n" s="8">
         <v>8861.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>5877.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>3524.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>4380.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>128546.0</v>
@@ -9368,10 +10216,20 @@
       <c r="AF87" t="n" s="8">
         <v>121786.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>123315.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>127573.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>127638.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>131859.0</v>
@@ -9466,10 +10324,20 @@
       <c r="AF88" t="n" s="8">
         <v>130647.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>129192.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>131097.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>132018.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>5.6</v>
@@ -9564,10 +10432,20 @@
       <c r="AF89" t="n" s="10">
         <v>11.1</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>382.0</v>
@@ -9662,10 +10540,20 @@
       <c r="AF90" t="n" s="8">
         <v>801.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>329.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>387.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>6390.0</v>
@@ -9760,10 +10648,20 @@
       <c r="AF91" t="n" s="8">
         <v>6402.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>6479.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>6923.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>7216.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>6772.0</v>
@@ -9858,10 +10756,20 @@
       <c r="AF92" t="n" s="8">
         <v>7203.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>7036.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>7252.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>7603.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>7.6</v>
@@ -9956,10 +10864,20 @@
       <c r="AF93" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>2948.0</v>
@@ -10054,10 +10972,20 @@
       <c r="AF94" t="n" s="8">
         <v>3374.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>2313.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1547.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1756.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>35786.0</v>
@@ -10152,10 +11080,20 @@
       <c r="AF95" t="n" s="8">
         <v>33785.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>34427.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>35444.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>35621.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>38734.0</v>
@@ -10250,10 +11188,20 @@
       <c r="AF96" t="n" s="8">
         <v>37159.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>36740.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>36991.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>37377.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>12.8</v>
@@ -10348,10 +11296,20 @@
       <c r="AF97" t="n" s="10">
         <v>12.5</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>10.3</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>9843.0</v>
@@ -10446,10 +11404,20 @@
       <c r="AF98" t="n" s="8">
         <v>14464.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>11870.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>8961.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>10708.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>67019.0</v>
@@ -10544,10 +11512,20 @@
       <c r="AF99" t="n" s="8">
         <v>101032.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>103082.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>106429.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>108224.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>76862.0</v>
@@ -10642,10 +11620,20 @@
       <c r="AF100" t="n" s="8">
         <v>115496.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>114952.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>115390.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>118932.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>9.6</v>
@@ -10740,10 +11728,20 @@
       <c r="AF101" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>362.0</v>
@@ -10838,10 +11836,20 @@
       <c r="AF102" t="n" s="8">
         <v>280.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>229.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>176.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>207.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>3400.0</v>
@@ -10936,10 +11944,20 @@
       <c r="AF103" t="n" s="8">
         <v>2901.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>2959.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>3000.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>3058.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>3762.0</v>
@@ -11034,10 +12052,20 @@
       <c r="AF104" t="n" s="8">
         <v>3181.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>3188.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>3176.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>3265.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>5.9</v>
@@ -11132,10 +12160,20 @@
       <c r="AF105" t="n" s="10">
         <v>12.1</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>337.0</v>
@@ -11230,10 +12268,20 @@
       <c r="AF106" t="n" s="8">
         <v>951.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>567.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>327.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>347.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>5379.0</v>
@@ -11328,10 +12376,20 @@
       <c r="AF107" t="n" s="8">
         <v>6932.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>7719.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>8284.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>8755.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>5716.0</v>
@@ -11426,10 +12484,20 @@
       <c r="AF108" t="n" s="8">
         <v>7883.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>8286.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>8611.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>9102.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>9.6</v>
@@ -11524,10 +12592,20 @@
       <c r="AF109" t="n" s="10">
         <v>11.1</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>16624.0</v>
@@ -11622,10 +12700,20 @@
       <c r="AF110" t="n" s="8">
         <v>23860.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>17517.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>13229.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>15269.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>156030.0</v>
@@ -11720,10 +12808,20 @@
       <c r="AF111" t="n" s="8">
         <v>190346.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>194236.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>203927.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>202396.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>172654.0</v>
@@ -11818,10 +12916,20 @@
       <c r="AF112" t="n" s="8">
         <v>214206.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>211753.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>217156.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>217665.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>4.1</v>
@@ -11916,10 +13024,20 @@
       <c r="AF113" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>2324.0</v>
@@ -12014,10 +13132,20 @@
       <c r="AF114" t="n" s="8">
         <v>6155.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>4152.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>2304.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>2544.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>54082.0</v>
@@ -12112,10 +13240,20 @@
       <c r="AF115" t="n" s="8">
         <v>62735.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>64252.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>68149.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>69429.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>56406.0</v>
@@ -12210,10 +13348,20 @@
       <c r="AF116" t="n" s="8">
         <v>68890.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>68404.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>70453.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>71973.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>4.8</v>
@@ -12308,10 +13456,20 @@
       <c r="AF117" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>1725.0</v>
@@ -12406,10 +13564,20 @@
       <c r="AF118" t="n" s="8">
         <v>3797.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>2671.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>1679.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>1913.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>34293.0</v>
@@ -12504,10 +13672,20 @@
       <c r="AF119" t="n" s="8">
         <v>42981.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>44592.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>46383.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>46925.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>36018.0</v>
@@ -12602,10 +13780,20 @@
       <c r="AF120" t="n" s="8">
         <v>46778.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>47263.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>48062.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>48838.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>3.5</v>
@@ -12700,10 +13888,20 @@
       <c r="AF121" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>47107.0</v>
@@ -12798,10 +13996,20 @@
       <c r="AF122" t="n" s="8">
         <v>139478.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>93150.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>50723.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>56458.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>1305545.0</v>
@@ -12896,10 +14104,20 @@
       <c r="AF123" t="n" s="8">
         <v>1424333.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>1464099.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>1528545.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>1532415.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>1352652.0</v>
@@ -12994,10 +14212,20 @@
       <c r="AF124" t="n" s="8">
         <v>1563811.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>1557249.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>1579268.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>1588873.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>4.2</v>
@@ -13092,10 +14320,20 @@
       <c r="AF125" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>3766.0</v>
@@ -13190,10 +14428,20 @@
       <c r="AF126" t="n" s="8">
         <v>13929.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>9601.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>5989.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>7255.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>85752.0</v>
@@ -13288,10 +14536,20 @@
       <c r="AF127" t="n" s="8">
         <v>173074.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>179558.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>185671.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>187464.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>89518.0</v>
@@ -13386,10 +14644,20 @@
       <c r="AF128" t="n" s="8">
         <v>187003.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>189159.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>191660.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>194719.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>9.9</v>
@@ -13484,10 +14752,20 @@
       <c r="AF129" t="n" s="10">
         <v>11.0</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>936.0</v>
@@ -13582,10 +14860,20 @@
       <c r="AF130" t="n" s="8">
         <v>841.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>703.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>487.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>540.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>8529.0</v>
@@ -13680,10 +14968,20 @@
       <c r="AF131" t="n" s="8">
         <v>6787.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>6761.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>6866.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>6883.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>9465.0</v>
@@ -13778,10 +15076,20 @@
       <c r="AF132" t="n" s="8">
         <v>7628.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>7464.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>7353.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>7423.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>7.1</v>
@@ -13876,10 +15184,20 @@
       <c r="AF133" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>38348.0</v>
@@ -13974,10 +15292,20 @@
       <c r="AF134" t="n" s="8">
         <v>112701.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>82822.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>48484.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>55574.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>498080.0</v>
@@ -14072,10 +15400,20 @@
       <c r="AF135" t="n" s="8">
         <v>1006179.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>1047722.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>1097218.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>1102297.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>536428.0</v>
@@ -14170,10 +15508,20 @@
       <c r="AF136" t="n" s="8">
         <v>1118880.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>1130544.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>1145702.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>1157871.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>4.6</v>
@@ -14268,10 +15616,20 @@
       <c r="AF137" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>23854.0</v>
@@ -14366,10 +15724,20 @@
       <c r="AF138" t="n" s="8">
         <v>67160.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>49762.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>28809.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>32528.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>498278.0</v>
@@ -14464,10 +15832,20 @@
       <c r="AF139" t="n" s="8">
         <v>643643.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>668371.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>691493.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>698518.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>522132.0</v>
@@ -14562,10 +15940,20 @@
       <c r="AF140" t="n" s="8">
         <v>710803.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>718133.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>720302.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>731046.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>12.1</v>
@@ -14660,10 +16048,20 @@
       <c r="AF141" t="n" s="10">
         <v>9.9</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>2540.0</v>
@@ -14758,10 +16156,20 @@
       <c r="AF142" t="n" s="8">
         <v>3220.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>2320.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>1639.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>1933.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>18389.0</v>
@@ -14856,10 +16264,20 @@
       <c r="AF143" t="n" s="8">
         <v>29328.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>29441.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>30578.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>30475.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>20929.0</v>
@@ -14954,10 +16372,20 @@
       <c r="AF144" t="n" s="8">
         <v>32548.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>31761.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>32217.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>32408.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>5.6</v>
@@ -15052,10 +16480,20 @@
       <c r="AF145" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>35646.0</v>
@@ -15150,10 +16588,20 @@
       <c r="AF146" t="n" s="8">
         <v>93543.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>73458.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>41748.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>47154.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>599326.0</v>
@@ -15248,10 +16696,20 @@
       <c r="AF147" t="n" s="8">
         <v>879264.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>916582.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>961203.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>966511.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>634972.0</v>
@@ -15346,10 +16804,20 @@
       <c r="AF148" t="n" s="8">
         <v>972807.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>990040.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>1002951.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>1013665.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>4.6</v>
@@ -15444,10 +16912,20 @@
       <c r="AF149" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>56007.0</v>
@@ -15542,10 +17020,20 @@
       <c r="AF150" t="n" s="8">
         <v>144969.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>100069.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>55203.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>62015.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>1158747.0</v>
@@ -15640,10 +17128,20 @@
       <c r="AF151" t="n" s="8">
         <v>1399329.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>1444339.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>1523260.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>1534417.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>1214754.0</v>
@@ -15738,10 +17236,20 @@
       <c r="AF152" t="n" s="8">
         <v>1544298.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>1544408.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>1578463.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>1596432.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>3.8</v>
@@ -15836,10 +17344,20 @@
       <c r="AF153" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>15375.0</v>
@@ -15934,10 +17452,20 @@
       <c r="AF154" t="n" s="8">
         <v>44332.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>27766.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>14745.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>18398.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>393892.0</v>
@@ -16032,10 +17560,20 @@
       <c r="AF155" t="n" s="8">
         <v>514683.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>519636.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>552887.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>544928.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>409267.0</v>
@@ -16130,10 +17668,20 @@
       <c r="AF156" t="n" s="8">
         <v>559015.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>547402.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>567632.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>563326.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>9.9</v>
@@ -16228,10 +17776,20 @@
       <c r="AF157" t="n" s="10">
         <v>11.5</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>22427.0</v>
@@ -16326,10 +17884,20 @@
       <c r="AF158" t="n" s="8">
         <v>38417.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>28867.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>18260.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>21624.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>204525.0</v>
@@ -16424,10 +17992,20 @@
       <c r="AF159" t="n" s="8">
         <v>296348.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>307273.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>323905.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>325140.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>226952.0</v>
@@ -16522,10 +18100,20 @@
       <c r="AF160" t="n" s="8">
         <v>334765.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>336140.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>342165.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>346764.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>4.6</v>
@@ -16620,10 +18208,20 @@
       <c r="AF161" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>4606.0</v>
@@ -16718,10 +18316,20 @@
       <c r="AF162" t="n" s="8">
         <v>10459.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>7204.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>4187.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>4714.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>95134.0</v>
@@ -16816,10 +18424,20 @@
       <c r="AF163" t="n" s="8">
         <v>123695.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>127925.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>131625.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>131600.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>99740.0</v>
@@ -16914,10 +18532,20 @@
       <c r="AF164" t="n" s="8">
         <v>134154.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>135129.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>135812.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>136314.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>2.6</v>
@@ -17012,10 +18640,20 @@
       <c r="AF165" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>9680.0</v>
@@ -17110,10 +18748,20 @@
       <c r="AF166" t="n" s="8">
         <v>30323.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>20025.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>11062.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>13494.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>360459.0</v>
@@ -17208,10 +18856,20 @@
       <c r="AF167" t="n" s="8">
         <v>408287.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>412404.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>438377.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>431899.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>370139.0</v>
@@ -17306,10 +18964,20 @@
       <c r="AF168" t="n" s="8">
         <v>438610.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>432429.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>449439.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>445393.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>4.9</v>
@@ -17404,10 +19072,20 @@
       <c r="AF169" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>9392.0</v>
@@ -17502,10 +19180,20 @@
       <c r="AF170" t="n" s="8">
         <v>17770.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>12679.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>7902.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>8979.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>183102.0</v>
@@ -17600,10 +19288,20 @@
       <c r="AF171" t="n" s="8">
         <v>200743.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>206705.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>208544.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>209269.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>192494.0</v>
@@ -17698,10 +19396,20 @@
       <c r="AF172" t="n" s="8">
         <v>218513.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>219384.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>216446.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>218248.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>4.0</v>
@@ -17796,10 +19504,20 @@
       <c r="AF173" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>33673.0</v>
@@ -17894,10 +19612,20 @@
       <c r="AF174" t="n" s="8">
         <v>72898.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>48534.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>27791.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>36378.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>818468.0</v>
@@ -17992,10 +19720,20 @@
       <c r="AF175" t="n" s="8">
         <v>950754.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>961615.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>1003697.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>1002573.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>852141.0</v>
@@ -18090,10 +19828,20 @@
       <c r="AF176" t="n" s="8">
         <v>1023652.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>1010149.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>1031488.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>1038951.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>7.2</v>
@@ -18188,10 +19936,20 @@
       <c r="AF177" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>9735.0</v>
@@ -18286,10 +20044,20 @@
       <c r="AF178" t="n" s="8">
         <v>13085.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>9202.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>6446.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>7647.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>125907.0</v>
@@ -18384,10 +20152,20 @@
       <c r="AF179" t="n" s="8">
         <v>121753.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>123628.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>126244.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>125570.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>135642.0</v>
@@ -18482,10 +20260,20 @@
       <c r="AF180" t="n" s="8">
         <v>134838.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>132830.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>132690.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>133217.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>8.6</v>
@@ -18580,10 +20368,20 @@
       <c r="AF181" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>5821.0</v>
@@ -18678,10 +20476,20 @@
       <c r="AF182" t="n" s="8">
         <v>6520.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>5032.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>3383.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>3798.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>61845.0</v>
@@ -18776,10 +20584,20 @@
       <c r="AF183" t="n" s="8">
         <v>66741.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>67802.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>69099.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>70091.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>67666.0</v>
@@ -18874,10 +20692,20 @@
       <c r="AF184" t="n" s="8">
         <v>73261.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>72834.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>72482.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>73889.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>10.9</v>
@@ -18972,10 +20800,20 @@
       <c r="AF185" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>177.0</v>
@@ -19070,10 +20908,20 @@
       <c r="AF186" t="n" s="8">
         <v>107.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>1451.0</v>
@@ -19168,10 +21016,20 @@
       <c r="AF187" t="n" s="8">
         <v>1179.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>1225.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>1257.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>1270.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>1628.0</v>
@@ -19266,10 +21124,20 @@
       <c r="AF188" t="n" s="8">
         <v>1286.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>1305.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>1312.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>1332.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>12.2</v>
@@ -19364,10 +21232,20 @@
       <c r="AF189" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>2363.0</v>
@@ -19462,10 +21340,20 @@
       <c r="AF190" t="n" s="8">
         <v>1698.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>1352.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>958.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>1067.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>17064.0</v>
@@ -19560,10 +21448,20 @@
       <c r="AF191" t="n" s="8">
         <v>15269.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>15315.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>15573.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>15649.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>19427.0</v>
@@ -19658,10 +21556,20 @@
       <c r="AF192" t="n" s="8">
         <v>16967.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>16667.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>16531.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>16716.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>4.8</v>
@@ -19756,10 +21664,20 @@
       <c r="AF193" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>7879.0</v>
@@ -19854,10 +21772,20 @@
       <c r="AF194" t="n" s="8">
         <v>19675.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>14852.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>8606.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>9444.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>156961.0</v>
@@ -19952,10 +21880,20 @@
       <c r="AF195" t="n" s="8">
         <v>182148.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>185378.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>192263.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>193619.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>164840.0</v>
@@ -20050,10 +21988,20 @@
       <c r="AF196" t="n" s="8">
         <v>201823.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>200230.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>200869.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>203063.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>3.9</v>
@@ -20148,10 +22096,20 @@
       <c r="AF197" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>7972.0</v>
@@ -20246,10 +22204,20 @@
       <c r="AF198" t="n" s="8">
         <v>19742.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>13481.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>7842.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>8972.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>198252.0</v>
@@ -20344,10 +22312,20 @@
       <c r="AF199" t="n" s="8">
         <v>225996.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>229659.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>238693.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>238991.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>206224.0</v>
@@ -20442,10 +22420,20 @@
       <c r="AF200" t="n" s="8">
         <v>245738.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>243140.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>246535.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>247963.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>11.8</v>
@@ -20540,10 +22528,20 @@
       <c r="AF201" t="n" s="10">
         <v>11.0</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>21300.0</v>
@@ -20638,10 +22636,20 @@
       <c r="AF202" t="n" s="8">
         <v>26541.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>19995.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>13277.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>15755.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>159040.0</v>
@@ -20736,10 +22744,20 @@
       <c r="AF203" t="n" s="8">
         <v>215474.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>219675.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>227552.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>229171.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>180340.0</v>
@@ -20834,10 +22852,20 @@
       <c r="AF204" t="n" s="8">
         <v>242015.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>239670.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>240829.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>244926.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>14.1</v>
@@ -20932,10 +22960,20 @@
       <c r="AF205" t="n" s="10">
         <v>11.4</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>4658.0</v>
@@ -21030,10 +23068,20 @@
       <c r="AF206" t="n" s="8">
         <v>5166.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>4050.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>3072.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>3638.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>28454.0</v>
@@ -21128,10 +23176,20 @@
       <c r="AF207" t="n" s="8">
         <v>40347.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>41225.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>42859.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>43098.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>33112.0</v>
@@ -21226,10 +23284,20 @@
       <c r="AF208" t="n" s="8">
         <v>45513.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>45275.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>45931.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>46736.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>10.0</v>
@@ -21324,10 +23392,20 @@
       <c r="AF209" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>1987.0</v>
@@ -21422,10 +23500,20 @@
       <c r="AF210" t="n" s="8">
         <v>2331.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>1840.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>1261.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>1519.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>17929.0</v>
@@ -21520,10 +23608,20 @@
       <c r="AF211" t="n" s="8">
         <v>23343.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>23720.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>24277.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>24552.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>19916.0</v>
@@ -21618,10 +23716,20 @@
       <c r="AF212" t="n" s="8">
         <v>25674.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>25560.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>25538.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>26071.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>12.4</v>
@@ -21716,10 +23824,20 @@
       <c r="AF213" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>664.0</v>
@@ -21814,10 +23932,20 @@
       <c r="AF214" t="n" s="8">
         <v>373.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>289.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>212.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>259.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>4677.0</v>
@@ -21912,10 +24040,20 @@
       <c r="AF215" t="n" s="8">
         <v>4168.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>4257.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>4303.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>4301.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>5341.0</v>
@@ -22010,10 +24148,20 @@
       <c r="AF216" t="n" s="8">
         <v>4541.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>4546.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>4515.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>4560.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>12.3</v>
@@ -22108,10 +24256,20 @@
       <c r="AF217" t="n" s="10">
         <v>13.4</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>17931.0</v>
@@ -22206,10 +24364,20 @@
       <c r="AF218" t="n" s="8">
         <v>27217.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>21291.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>17119.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>21320.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>127773.0</v>
@@ -22304,10 +24472,20 @@
       <c r="AF219" t="n" s="8">
         <v>175249.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>179494.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>189562.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>191983.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>145704.0</v>
@@ -22402,10 +24580,20 @@
       <c r="AF220" t="n" s="8">
         <v>202466.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>200785.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>206681.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>213303.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>6.7</v>
@@ -22500,10 +24688,20 @@
       <c r="AF221" t="n" s="10">
         <v>10.6</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>1333.0</v>
@@ -22598,10 +24796,20 @@
       <c r="AF222" t="n" s="8">
         <v>2139.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>1457.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>896.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>1000.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>18530.0</v>
@@ -22696,10 +24904,20 @@
       <c r="AF223" t="n" s="8">
         <v>18045.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>18601.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>18829.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>18979.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>19863.0</v>
@@ -22794,10 +25012,20 @@
       <c r="AF224" t="n" s="8">
         <v>20184.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>20058.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>19725.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>19979.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>5.7</v>
@@ -22892,10 +25120,20 @@
       <c r="AF225" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>21070.0</v>
@@ -22990,10 +25228,20 @@
       <c r="AF226" t="n" s="8">
         <v>35801.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>25174.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>15364.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>17649.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>345397.0</v>
@@ -23088,10 +25336,20 @@
       <c r="AF227" t="n" s="8">
         <v>374275.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>381392.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>395761.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>395282.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>366467.0</v>
@@ -23186,10 +25444,20 @@
       <c r="AF228" t="n" s="8">
         <v>410076.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>406566.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>411125.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>412931.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>6.8</v>
@@ -23284,10 +25552,20 @@
       <c r="AF229" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>5063.0</v>
@@ -23382,10 +25660,20 @@
       <c r="AF230" t="n" s="8">
         <v>8136.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>6317.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>4447.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>5151.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>68929.0</v>
@@ -23480,10 +25768,20 @@
       <c r="AF231" t="n" s="8">
         <v>96690.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>100109.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>103368.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>104602.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>73992.0</v>
@@ -23578,10 +25876,20 @@
       <c r="AF232" t="n" s="8">
         <v>104826.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>106426.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>107815.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>109753.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>10.6</v>
@@ -23676,10 +25984,20 @@
       <c r="AF233" t="n" s="10">
         <v>10.6</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>2352.0</v>
@@ -23774,10 +26092,20 @@
       <c r="AF234" t="n" s="8">
         <v>3269.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>2605.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>1761.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>2124.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>19783.0</v>
@@ -23872,10 +26200,20 @@
       <c r="AF235" t="n" s="8">
         <v>27444.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>28306.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>29515.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>29754.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>22135.0</v>
@@ -23970,6 +26308,16 @@
       <c r="AF236" t="n" s="8">
         <v>30713.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>30911.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>31276.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>31878.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -23980,7 +26328,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:46:11 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:23:04 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
